--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N2">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O2">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P2">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q2">
-        <v>3657.310267207596</v>
+        <v>2214.218845505895</v>
       </c>
       <c r="R2">
-        <v>14629.24106883038</v>
+        <v>8856.875382023582</v>
       </c>
       <c r="S2">
-        <v>0.00232589209175192</v>
+        <v>0.005836854747122791</v>
       </c>
       <c r="T2">
-        <v>0.001245733835989537</v>
+        <v>0.003371430187025763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H3">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I3">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J3">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.51982</v>
       </c>
       <c r="O3">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P3">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q3">
-        <v>58.69412371877</v>
+        <v>51.15729341299001</v>
       </c>
       <c r="R3">
-        <v>352.16474231262</v>
+        <v>306.94376047794</v>
       </c>
       <c r="S3">
-        <v>3.732693925747455E-05</v>
+        <v>0.0001348546425361771</v>
       </c>
       <c r="T3">
-        <v>2.998812674405137E-05</v>
+        <v>0.0001168402416381404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H4">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I4">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J4">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N4">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O4">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P4">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q4">
-        <v>557.4162795473267</v>
+        <v>547.5772952863797</v>
       </c>
       <c r="R4">
-        <v>3344.49767728396</v>
+        <v>3285.463771718278</v>
       </c>
       <c r="S4">
-        <v>0.0003544927888775462</v>
+        <v>0.001443456748593758</v>
       </c>
       <c r="T4">
-        <v>0.0002847963131770408</v>
+        <v>0.001250634254246418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H5">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I5">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J5">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N5">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O5">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P5">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q5">
-        <v>141.413556476992</v>
+        <v>175.7269460772255</v>
       </c>
       <c r="R5">
-        <v>565.654225907968</v>
+        <v>702.907784308902</v>
       </c>
       <c r="S5">
-        <v>8.993294214753024E-05</v>
+        <v>0.0004632300287255023</v>
       </c>
       <c r="T5">
-        <v>4.816754371389703E-05</v>
+        <v>0.0002675666553381023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H6">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I6">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J6">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N6">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O6">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P6">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q6">
-        <v>2346.834818586401</v>
+        <v>193.0162283785975</v>
       </c>
       <c r="R6">
-        <v>14081.00891151841</v>
+        <v>1158.097370271585</v>
       </c>
       <c r="S6">
-        <v>0.001492486047503371</v>
+        <v>0.0005088059345037103</v>
       </c>
       <c r="T6">
-        <v>0.001199049845676725</v>
+        <v>0.000440837684311722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H7">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I7">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J7">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N7">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O7">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P7">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q7">
-        <v>808.5382279598649</v>
+        <v>337.8522256586841</v>
       </c>
       <c r="R7">
-        <v>4851.22936775919</v>
+        <v>2027.113353952104</v>
       </c>
       <c r="S7">
-        <v>0.000514195551619634</v>
+        <v>0.0008906049965044613</v>
       </c>
       <c r="T7">
-        <v>0.0004131000741002159</v>
+        <v>0.0007716345617675045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J8">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N8">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O8">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P8">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q8">
-        <v>517.3675549726323</v>
+        <v>359.3726246522701</v>
       </c>
       <c r="R8">
-        <v>3104.205329835794</v>
+        <v>2156.235747913621</v>
       </c>
       <c r="S8">
-        <v>0.0003290235218568532</v>
+        <v>0.0009473344581295566</v>
       </c>
       <c r="T8">
-        <v>0.0002643345334895545</v>
+        <v>0.0008207858841070345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J9">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.51982</v>
       </c>
       <c r="O9">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P9">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q9">
         <v>8.302942069726667</v>
@@ -1013,10 +1013,10 @@
         <v>74.72647862754</v>
       </c>
       <c r="S9">
-        <v>5.280314189202313E-06</v>
+        <v>2.188720727995475E-05</v>
       </c>
       <c r="T9">
-        <v>6.363235278760645E-06</v>
+        <v>2.844514514976305E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J10">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N10">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O10">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P10">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q10">
-        <v>78.85278430903556</v>
+        <v>88.8730082875331</v>
       </c>
       <c r="R10">
-        <v>709.67505878132</v>
+        <v>799.8570745877979</v>
       </c>
       <c r="S10">
-        <v>5.014698071461032E-05</v>
+        <v>0.0002342762285521291</v>
       </c>
       <c r="T10">
-        <v>6.04314488442862E-05</v>
+        <v>0.0003044710657264884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J11">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N11">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O11">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P11">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q11">
-        <v>20.00453355310933</v>
+        <v>28.520872705097</v>
       </c>
       <c r="R11">
-        <v>120.027201318656</v>
+        <v>171.125236230582</v>
       </c>
       <c r="S11">
-        <v>1.272202328786503E-05</v>
+        <v>7.51832600371511E-05</v>
       </c>
       <c r="T11">
-        <v>1.022075890459929E-05</v>
+        <v>6.513999150994973E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J12">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N12">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O12">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P12">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q12">
-        <v>331.9861054456632</v>
+        <v>31.32696153033166</v>
       </c>
       <c r="R12">
-        <v>2987.874949010969</v>
+        <v>281.942653772985</v>
       </c>
       <c r="S12">
-        <v>0.0002111288900345729</v>
+        <v>8.258033052711752E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002544285724854804</v>
+        <v>0.0001073233993863891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J13">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N13">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O13">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P13">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q13">
-        <v>114.3768003092848</v>
+        <v>54.83416480082933</v>
       </c>
       <c r="R13">
-        <v>1029.391202783563</v>
+        <v>493.507483207464</v>
       </c>
       <c r="S13">
-        <v>7.273872761207376E-05</v>
+        <v>0.0001445471642389117</v>
       </c>
       <c r="T13">
-        <v>8.765645775772128E-05</v>
+        <v>0.0001878569986189204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H14">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I14">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J14">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N14">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O14">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P14">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q14">
-        <v>308828.3878033177</v>
+        <v>71452.49257286882</v>
       </c>
       <c r="R14">
-        <v>1852970.326819906</v>
+        <v>428714.9554372129</v>
       </c>
       <c r="S14">
-        <v>0.1964015772303246</v>
+        <v>0.188354381191448</v>
       </c>
       <c r="T14">
-        <v>0.15778725788601</v>
+        <v>0.1631932798020457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H15">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I15">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J15">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.51982</v>
       </c>
       <c r="O15">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P15">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q15">
-        <v>4956.213795729167</v>
+        <v>1650.83778193776</v>
       </c>
       <c r="R15">
-        <v>44605.9241615625</v>
+        <v>14857.54003743984</v>
       </c>
       <c r="S15">
-        <v>0.003151938892326934</v>
+        <v>0.00435173802435574</v>
       </c>
       <c r="T15">
-        <v>0.003798358968329193</v>
+        <v>0.0056556242271215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H16">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I16">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J16">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N16">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O16">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P16">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q16">
-        <v>47069.00929118056</v>
+        <v>17670.23286967931</v>
       </c>
       <c r="R16">
-        <v>423621.083620625</v>
+        <v>159032.0958271138</v>
       </c>
       <c r="S16">
-        <v>0.02993386627832971</v>
+        <v>0.04658012139020892</v>
       </c>
       <c r="T16">
-        <v>0.03607289776837051</v>
+        <v>0.06053665490944329</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H17">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I17">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J17">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N17">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O17">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P17">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q17">
-        <v>11941.15824733333</v>
+        <v>5670.680806877112</v>
       </c>
       <c r="R17">
-        <v>71646.949484</v>
+        <v>34024.08484126267</v>
       </c>
       <c r="S17">
-        <v>0.007594063260877373</v>
+        <v>0.01494835989415331</v>
       </c>
       <c r="T17">
-        <v>0.006101002013550642</v>
+        <v>0.01295150058818488</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H18">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I18">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J18">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N18">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O18">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P18">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q18">
-        <v>198170.0103388003</v>
+        <v>6228.603217182839</v>
       </c>
       <c r="R18">
-        <v>1783530.093049203</v>
+        <v>56057.42895464555</v>
       </c>
       <c r="S18">
-        <v>0.1260276066819269</v>
+        <v>0.01641908717828278</v>
       </c>
       <c r="T18">
-        <v>0.1518741658547701</v>
+        <v>0.02133864371269539</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H19">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I19">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J19">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N19">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O19">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P19">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q19">
-        <v>68274.09740351216</v>
+        <v>10902.43798331002</v>
       </c>
       <c r="R19">
-        <v>614466.8766316094</v>
+        <v>98121.94184979014</v>
       </c>
       <c r="S19">
-        <v>0.04341939065059791</v>
+        <v>0.02873968263220866</v>
       </c>
       <c r="T19">
-        <v>0.05232412096521722</v>
+        <v>0.03735078822870223</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H20">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I20">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J20">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N20">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O20">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P20">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q20">
-        <v>4327.673770256157</v>
+        <v>1670.057744432289</v>
       </c>
       <c r="R20">
-        <v>17310.69508102463</v>
+        <v>6680.230977729156</v>
       </c>
       <c r="S20">
-        <v>0.002752214458853201</v>
+        <v>0.004402403354728756</v>
       </c>
       <c r="T20">
-        <v>0.001474069535491913</v>
+        <v>0.002542875608290989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H21">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I21">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J21">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.51982</v>
       </c>
       <c r="O21">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P21">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q21">
-        <v>69.45241205358001</v>
+        <v>38.58499995245</v>
       </c>
       <c r="R21">
-        <v>416.71447232148</v>
+        <v>231.5099997147</v>
       </c>
       <c r="S21">
-        <v>4.416874810893592E-05</v>
+        <v>0.0001017130897414679</v>
       </c>
       <c r="T21">
-        <v>3.54847743416738E-05</v>
+        <v>8.81258647062657E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H22">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I22">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J22">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N22">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O22">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P22">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q22">
-        <v>659.58741147564</v>
+        <v>413.0060154281484</v>
       </c>
       <c r="R22">
-        <v>3957.52446885384</v>
+        <v>2478.03609256889</v>
       </c>
       <c r="S22">
-        <v>0.0004194692361557932</v>
+        <v>0.001088716287748549</v>
       </c>
       <c r="T22">
-        <v>0.0003369978055875941</v>
+        <v>0.0009432813861176081</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H23">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I23">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J23">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N23">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O23">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P23">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q23">
-        <v>167.333831261568</v>
+        <v>132.5407142105025</v>
       </c>
       <c r="R23">
-        <v>669.3353250462719</v>
+        <v>530.16285684201</v>
       </c>
       <c r="S23">
-        <v>0.000106417122524032</v>
+        <v>0.0003493877303486969</v>
       </c>
       <c r="T23">
-        <v>5.699637172633317E-05</v>
+        <v>0.000201810117281857</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H24">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I24">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J24">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N24">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O24">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P24">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q24">
-        <v>2776.995864579663</v>
+        <v>145.5810240523625</v>
       </c>
       <c r="R24">
-        <v>16661.97518747798</v>
+        <v>873.486144314175</v>
       </c>
       <c r="S24">
-        <v>0.001766049978905713</v>
+        <v>0.0003837630110753056</v>
       </c>
       <c r="T24">
-        <v>0.001418828643796415</v>
+        <v>0.0003324984746727591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H25">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I25">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J25">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N25">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O25">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P25">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q25">
-        <v>956.7385389107011</v>
+        <v>254.82247478842</v>
       </c>
       <c r="R25">
-        <v>5740.431233464206</v>
+        <v>1528.93484873052</v>
       </c>
       <c r="S25">
-        <v>0.0006084445778306114</v>
+        <v>0.0006717320533429662</v>
       </c>
       <c r="T25">
-        <v>0.0004888188927266921</v>
+        <v>0.000581999506673427</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H26">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I26">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J26">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N26">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O26">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P26">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q26">
-        <v>3640.115741678179</v>
+        <v>21671.25628677002</v>
       </c>
       <c r="R26">
-        <v>21840.69445006907</v>
+        <v>130027.5377206201</v>
       </c>
       <c r="S26">
-        <v>0.002314957112756869</v>
+        <v>0.05712713329591767</v>
       </c>
       <c r="T26">
-        <v>0.001859815690366173</v>
+        <v>0.04949587150178134</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H27">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I27">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J27">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.51982</v>
       </c>
       <c r="O27">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P27">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q27">
-        <v>58.41817841061334</v>
+        <v>500.6925213108735</v>
       </c>
       <c r="R27">
-        <v>525.76360569552</v>
+        <v>4506.232691797861</v>
       </c>
       <c r="S27">
-        <v>3.715144990516217E-05</v>
+        <v>0.001319864802792128</v>
       </c>
       <c r="T27">
-        <v>4.477071026891864E-05</v>
+        <v>0.00171532829260815</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H28">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I28">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J28">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N28">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O28">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P28">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q28">
-        <v>554.7956354813512</v>
+        <v>5359.311220321688</v>
       </c>
       <c r="R28">
-        <v>4993.16071933216</v>
+        <v>48233.80098289518</v>
       </c>
       <c r="S28">
-        <v>0.0003528261719205433</v>
+        <v>0.01412756521386034</v>
       </c>
       <c r="T28">
-        <v>0.0004251860521909654</v>
+        <v>0.0183605262188494</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H29">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I29">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J29">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N29">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O29">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P29">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q29">
-        <v>140.7487129637547</v>
+        <v>1719.894893253373</v>
       </c>
       <c r="R29">
-        <v>844.4922777825279</v>
+        <v>10319.36935952024</v>
       </c>
       <c r="S29">
-        <v>8.951013025662881E-05</v>
+        <v>0.004533777992457011</v>
       </c>
       <c r="T29">
-        <v>7.191163230654722E-05</v>
+        <v>0.003928138521669742</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H30">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I30">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J30">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N30">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O30">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P30">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q30">
-        <v>2335.801379186053</v>
+        <v>1889.110537193819</v>
       </c>
       <c r="R30">
-        <v>21022.21241267447</v>
+        <v>17001.99483474437</v>
       </c>
       <c r="S30">
-        <v>0.001485469254403755</v>
+        <v>0.004979843717453387</v>
       </c>
       <c r="T30">
-        <v>0.001790118925965692</v>
+        <v>0.006471925611808347</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H31">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I31">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J31">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N31">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O31">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P31">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q31">
-        <v>804.7369559357717</v>
+        <v>3306.665998334131</v>
       </c>
       <c r="R31">
-        <v>7242.632603421945</v>
+        <v>29759.99398500718</v>
       </c>
       <c r="S31">
-        <v>0.000511778106039829</v>
+        <v>0.00871663122581562</v>
       </c>
       <c r="T31">
-        <v>0.0006167368801480182</v>
+        <v>0.01132834524130275</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H32">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I32">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J32">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N32">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O32">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P32">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q32">
-        <v>438701.4214899241</v>
+        <v>141290.1663826192</v>
       </c>
       <c r="R32">
-        <v>2632208.528939545</v>
+        <v>847740.998295715</v>
       </c>
       <c r="S32">
-        <v>0.2789952430431361</v>
+        <v>0.3724519733205225</v>
       </c>
       <c r="T32">
-        <v>0.2241422649645623</v>
+        <v>0.3226984087677796</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H33">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I33">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J33">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.51982</v>
       </c>
       <c r="O33">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P33">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q33">
-        <v>7040.473360820361</v>
+        <v>3264.366804878493</v>
       </c>
       <c r="R33">
-        <v>63364.26024738324</v>
+        <v>29379.30124390644</v>
       </c>
       <c r="S33">
-        <v>0.004477438367465869</v>
+        <v>0.008605127230344659</v>
       </c>
       <c r="T33">
-        <v>0.005395700474906657</v>
+        <v>0.01118343194581554</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H34">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I34">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J34">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N34">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O34">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P34">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q34">
-        <v>66863.15798570355</v>
+        <v>34941.12034832791</v>
       </c>
       <c r="R34">
-        <v>601768.421871332</v>
+        <v>314470.0831349512</v>
       </c>
       <c r="S34">
-        <v>0.04252209384117853</v>
+        <v>0.09210753697127429</v>
       </c>
       <c r="T34">
-        <v>0.0512428007049773</v>
+        <v>0.1197051878306368</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H35">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I35">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J35">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N35">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O35">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P35">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q35">
-        <v>16962.82888565785</v>
+        <v>11213.20482821924</v>
       </c>
       <c r="R35">
-        <v>101776.9733139471</v>
+        <v>67279.22896931545</v>
       </c>
       <c r="S35">
-        <v>0.01078762989091873</v>
+        <v>0.02955888843819229</v>
       </c>
       <c r="T35">
-        <v>0.008666684675251224</v>
+        <v>0.02561029863504118</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H36">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I36">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J36">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N36">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O36">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P36">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q36">
-        <v>281507.3635253771</v>
+        <v>12316.44066145902</v>
       </c>
       <c r="R36">
-        <v>2533566.271728393</v>
+        <v>110847.9659531312</v>
       </c>
       <c r="S36">
-        <v>0.1790265803982559</v>
+        <v>0.0324671047256254</v>
       </c>
       <c r="T36">
-        <v>0.2157425129276551</v>
+        <v>0.04219503633790605</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H37">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I37">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J37">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N37">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O37">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P37">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q37">
-        <v>96985.7201111243</v>
+        <v>21558.48202310252</v>
       </c>
       <c r="R37">
-        <v>872871.4810001187</v>
+        <v>194026.3382079227</v>
       </c>
       <c r="S37">
-        <v>0.06167874829814785</v>
+        <v>0.05682985148135046</v>
       </c>
       <c r="T37">
-        <v>0.07432822613532077</v>
+        <v>0.0738574526000392</v>
       </c>
     </row>
   </sheetData>
